--- a/tests/data/test.xlsx
+++ b/tests/data/test.xlsx
@@ -5,22 +5,23 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="980" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="980" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>a</t>
   </si>
@@ -59,6 +60,15 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>yyy</t>
+  </si>
+  <si>
+    <t>zzz</t>
   </si>
 </sst>
 </file>
@@ -165,7 +175,7 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -250,11 +260,71 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Seite &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CSeite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CSeite &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/tests/data/test.xlsx
+++ b/tests/data/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="980" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -181,8 +181,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="14.4897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -281,9 +280,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -314,14 +310,11 @@
       <c r="B3" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>6</v>
-      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CSeite &amp;P</oddFooter>
